--- a/biology/Botanique/Trifolium_gillettianum/Trifolium_gillettianum.xlsx
+++ b/biology/Botanique/Trifolium_gillettianum/Trifolium_gillettianum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Trifolium gillettianum Jacq.-Fel. est une espèce de plantes de la famille des Fabaceae et du genre Trifolium, endémique du Cameroun[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Trifolium gillettianum Jacq.-Fel. est une espèce de plantes de la famille des Fabaceae et du genre Trifolium, endémique du Cameroun.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Son épithète spécifique gillettianum rend hommage au botaniste britannique Jan Bevington Gillett (de), spécialiste de la flore tropicale, notamment africaine[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son épithète spécifique gillettianum rend hommage au botaniste britannique Jan Bevington Gillett (de), spécialiste de la flore tropicale, notamment africaine.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Trifolium gilletianum est une plante légumineuse annuelle pouvant atteindre 30 cm de hauteur[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Trifolium gilletianum est une plante légumineuse annuelle pouvant atteindre 30 cm de hauteur.
 </t>
         </is>
       </c>
@@ -573,10 +589,12 @@
           <t>Distribution et écologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Endémique du Cameroun, elle n’a été trouvée que sur un seul site, à 1 400 mètres d’altitude en zone humide à 40 km à l'est de Ngaoundéré (région de l'Adamaoua), où Henri Jacques-Félix l'a collectée en 1967[4]. 
-Très rare, elle figure sur la liste rouge de l'UICN comme une espèce « en danger critique d'extinction[5] ».
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Endémique du Cameroun, elle n’a été trouvée que sur un seul site, à 1 400 mètres d’altitude en zone humide à 40 km à l'est de Ngaoundéré (région de l'Adamaoua), où Henri Jacques-Félix l'a collectée en 1967. 
+Très rare, elle figure sur la liste rouge de l'UICN comme une espèce « en danger critique d'extinction ».
 </t>
         </is>
       </c>
